--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail15 Features.xlsx
@@ -3586,7 +3586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3597,29 +3597,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3640,115 +3638,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3765,72 +3753,66 @@
         <v>2.398724459726695e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.4510046701817862</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.023369436472784</v>
+        <v>7.944432324144509e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>-0.01830946089650002</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.944432324144509e-07</v>
+        <v>0.1142912895563524</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01830946089650002</v>
+        <v>0.01339244836933635</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1142912895563524</v>
+        <v>1.910302611855558</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01339244836933635</v>
+        <v>1.773206855733986</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.917651063851339</v>
+        <v>4.473233313614124</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.773206855733986</v>
+        <v>4.569313547265016e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.473233313614124</v>
+        <v>1083571483.800697</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.569313547265016e-17</v>
+        <v>1.105172277433667e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1083571483.800697</v>
+        <v>53.64955140712075</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.105172277433667e-07</v>
+        <v>0.0002276008015440396</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>53.64955140712075</v>
+        <v>12.21235654329739</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002276008015440396</v>
+        <v>1.13001867730981</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.21235654329739</v>
+        <v>0.0339447596163273</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.13001867730981</v>
+        <v>2.527590744820965</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0339447596163273</v>
+        <v>0.9564402731973758</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.527590744820965</v>
+        <v>1.236502142163095</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9564402731973758</v>
+        <v>53</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.236502142163095</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.6517246455861536</v>
       </c>
     </row>
@@ -3845,72 +3827,66 @@
         <v>2.429368100211148e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4173767115260935</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.108056314214031</v>
+        <v>7.940372270760294e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>-0.0147755429458793</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.940372270760294e-07</v>
+        <v>0.1193814192903825</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0147755429458793</v>
+        <v>0.01446052953781726</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1193814192903825</v>
+        <v>1.900092825691732</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01446052953781726</v>
+        <v>1.65320278126318</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.899016491088216</v>
+        <v>4.286006794902038</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.65320278126318</v>
+        <v>8.44076314574482e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.286006794902038</v>
+        <v>581297008.6635123</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.44076314574482e-17</v>
+        <v>2.059027301604418e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>581297008.6635123</v>
+        <v>28.52186303340936</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.059027301604418e-07</v>
+        <v>0.0002483722932118952</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>28.52186303340936</v>
+        <v>12.95012810668661</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002483722932118952</v>
+        <v>1.093843042585749</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.95012810668661</v>
+        <v>0.04165347859656854</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.093843042585749</v>
+        <v>2.305102254306655</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04165347859656854</v>
+        <v>0.9546511836062196</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.305102254306655</v>
+        <v>1.323381924236879</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9546511836062196</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.323381924236879</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.4562505667552823</v>
       </c>
     </row>
@@ -3925,72 +3901,66 @@
         <v>2.443939221714274e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3858396378119189</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.161627315132722</v>
+        <v>7.937502252139332e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>-0.008155084848163002</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.937502252139332e-07</v>
+        <v>0.1331270582477582</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.008155084848163002</v>
+        <v>0.0177696952773187</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1331270582477582</v>
+        <v>1.896438347059974</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0177696952773187</v>
+        <v>1.606665189258794</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.886005569811442</v>
+        <v>3.754644237538305</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.606665189258794</v>
+        <v>1.510031483854903e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.754644237538305</v>
+        <v>328301721.6827286</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.510031483854903e-16</v>
+        <v>3.644138675739337e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>328301721.6827286</v>
+        <v>16.27542442878575</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.644138675739337e-07</v>
+        <v>0.0002647939303463386</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>16.27542442878575</v>
+        <v>13.7409431361298</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002647939303463386</v>
+        <v>1.062798457252682</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.7409431361298</v>
+        <v>0.04999667360532688</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.062798457252682</v>
+        <v>2.18084645984562</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04999667360532688</v>
+        <v>0.9557501457351407</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.18084645984562</v>
+        <v>1.411198731370498</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9557501457351407</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.411198731370498</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3472700643835837</v>
       </c>
     </row>
@@ -4005,72 +3975,66 @@
         <v>2.446258637517905e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3746653205699387</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.173724176908098</v>
+        <v>7.936596858488051e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.0009960889749271212</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.936596858488051e-07</v>
+        <v>0.153515231280356</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0009960889749271212</v>
+        <v>0.0235452920252201</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.153515231280356</v>
+        <v>1.750920817214357</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0235452920252201</v>
+        <v>1.613625356856015</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.714026240542415</v>
+        <v>5.788651045880867</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.613625356856015</v>
+        <v>1.738379165867784e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.788651045880867</v>
+        <v>304833426.4249112</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.738379165867784e-16</v>
+        <v>3.626938765651626e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>304833426.4249112</v>
+        <v>16.15361336393967</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.626938765651626e-07</v>
+        <v>0.0002486001397510006</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>16.15361336393967</v>
+        <v>14.4859092459031</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002486001397510006</v>
+        <v>0.9588827053146255</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>14.4859092459031</v>
+        <v>0.05216664280235138</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9588827053146255</v>
+        <v>2.101880069160922</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.05216664280235138</v>
+        <v>0.9498547712601896</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.101880069160922</v>
+        <v>1.589757594880707</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9498547712601896</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.589757594880707</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2972465548630187</v>
       </c>
     </row>
@@ -4085,72 +4049,66 @@
         <v>2.448084119260032e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3887737306862248</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.171021410871086</v>
+        <v>7.937856873963376e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.008939724543101093</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.937856873963376e-07</v>
+        <v>0.1666392291979837</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.008939724543101093</v>
+        <v>0.02783683042817865</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1666392291979837</v>
+        <v>1.695242575934273</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02783683042817865</v>
+        <v>1.576771429024367</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.638239054546087</v>
+        <v>5.047721039897978</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.576771429024367</v>
+        <v>3.436217245743507e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.047721039897978</v>
+        <v>152540738.7340553</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.436217245743507e-16</v>
+        <v>7.041669717419689e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>152540738.7340553</v>
+        <v>7.995622910208312</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.041669717419689e-07</v>
+        <v>0.0002369675494437316</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.995622910208312</v>
+        <v>9.616362532608402</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002369675494437316</v>
+        <v>1.717018133065409</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.616362532608402</v>
+        <v>0.02191343867433662</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.717018133065409</v>
+        <v>2.711681550038087</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02191343867433662</v>
+        <v>0.9488163041249775</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.711681550038087</v>
+        <v>1.836300938671924</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9488163041249775</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.836300938671924</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1752176349605237</v>
       </c>
     </row>
@@ -4165,72 +4123,66 @@
         <v>2.457663404947771e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4139882854481627</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.176623948971715</v>
+        <v>7.940748624037354e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.01428744408375978</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.940748624037354e-07</v>
+        <v>0.1713995126506447</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01428744408375978</v>
+        <v>0.02957721253615629</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1713995126506447</v>
+        <v>1.686660218722941</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02957721253615629</v>
+        <v>1.584356746353009</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.622541900351343</v>
+        <v>4.270128851136198</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.584356746353009</v>
+        <v>4.801637221110781e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.270128851136198</v>
+        <v>112627276.5936792</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.801637221110781e-16</v>
+        <v>9.509548530935704e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>112627276.5936792</v>
+        <v>6.090830446965237</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.509548530935704e-07</v>
+        <v>0.0001838422736646637</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.090830446965237</v>
+        <v>8.746722798143926</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001838422736646637</v>
+        <v>1.750465126521845</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.746722798143926</v>
+        <v>0.01406488250771802</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.750465126521845</v>
+        <v>2.94298292908394</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01406488250771802</v>
+        <v>0.948929140604527</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.94298292908394</v>
+        <v>1.814620735458453</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.948929140604527</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.814620735458453</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1557741865242545</v>
       </c>
     </row>
@@ -4245,72 +4197,66 @@
         <v>2.475675251752746e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4391198365021138</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.189201816101432</v>
+        <v>7.944712873329119e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.01761123513042213</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.944712873329119e-07</v>
+        <v>0.172205050693343</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01761123513042213</v>
+        <v>0.02996257665900925</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.172205050693343</v>
+        <v>1.672615701993561</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02996257665900925</v>
+        <v>1.5791197442487</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.604567971485752</v>
+        <v>4.072820181389059</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.5791197442487</v>
+        <v>5.278139115576458e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.072820181389059</v>
+        <v>102617164.392532</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.278139115576458e-16</v>
+        <v>1.045855862555326e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>102617164.392532</v>
+        <v>5.558029558110386</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.045855862555326e-06</v>
+        <v>0.0001472007197484487</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>5.558029558110386</v>
+        <v>9.186160140073627</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001472007197484487</v>
+        <v>1.248208595081213</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.186160140073627</v>
+        <v>0.01242161194748836</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.248208595081213</v>
+        <v>2.931673388703159</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01242161194748836</v>
+        <v>0.9485681691073552</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.931673388703159</v>
+        <v>1.793567769881678</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9485681691073552</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.793567769881678</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1674285094452957</v>
       </c>
     </row>
@@ -4325,72 +4271,66 @@
         <v>2.500344395583128e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4598590071730924</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.203537406491014</v>
+        <v>7.94933818564373e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.01928687568092835</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.94933818564373e-07</v>
+        <v>0.1712870046844654</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01928687568092835</v>
+        <v>0.02971033523315832</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1712870046844654</v>
+        <v>1.659888847436071</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02971033523315832</v>
+        <v>1.578557669264025</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.590428279848962</v>
+        <v>3.951303243213374</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.578557669264025</v>
+        <v>5.60777503494977e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.951303243213374</v>
+        <v>97528744.77491437</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.60777503494977e-16</v>
+        <v>1.098361491780926e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>97528744.77491437</v>
+        <v>5.334034893455741</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.098361491780926e-06</v>
+        <v>0.0001470536802472464</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5.334034893455741</v>
+        <v>9.930584929756609</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001470536802472464</v>
+        <v>1.148323206367881</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.930584929756609</v>
+        <v>0.0145019217649427</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.148323206367881</v>
+        <v>2.765822513165417</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0145019217649427</v>
+        <v>0.9504094781188742</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.765822513165417</v>
+        <v>1.805023045566202</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9504094781188742</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.805023045566202</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1751161207478799</v>
       </c>
     </row>
@@ -4405,72 +4345,66 @@
         <v>2.529060552640939e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.4752817167443407</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.217631523872918</v>
+        <v>7.954214447929882e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.01926728774893431</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.954214447929882e-07</v>
+        <v>0.1694090981184832</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01926728774893431</v>
+        <v>0.02906985860535434</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1694090981184832</v>
+        <v>1.668688654594153</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02906985860535434</v>
+        <v>1.591438889494486</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.598951161431028</v>
+        <v>3.907879343965846</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.591438889494486</v>
+        <v>5.733093332686788e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.907879343965846</v>
+        <v>101002178.9643653</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.733093332686788e-16</v>
+        <v>1.077314859707855e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>101002178.9643653</v>
+        <v>5.848580853958516</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.077314859707855e-06</v>
+        <v>0.0001480858691614447</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>5.848580853958516</v>
+        <v>10.00895846159182</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001480858691614447</v>
+        <v>1.145113909755702</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.00895846159182</v>
+        <v>0.01483513123205634</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.145113909755702</v>
+        <v>2.724557018456052</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01483513123205634</v>
+        <v>0.9513296515758227</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.724557018456052</v>
+        <v>1.79229011716448</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9513296515758227</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.79229011716448</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1767249073778354</v>
       </c>
     </row>
@@ -4485,72 +4419,66 @@
         <v>2.559554012107136e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4850615554533896</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.232013524024024</v>
+        <v>7.958962590727715e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.01782673962967898</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.958962590727715e-07</v>
+        <v>0.1669141922822767</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.01782673962967898</v>
+        <v>0.02817670566096869</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1669141922822767</v>
+        <v>1.667385577293638</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02817670566096869</v>
+        <v>1.603788325171267</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.597573567371867</v>
+        <v>3.878961857919237</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.603788325171267</v>
+        <v>5.818891862572049e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.878961857919237</v>
+        <v>99244417.59422472</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.818891862572049e-16</v>
+        <v>1.097348256162725e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>99244417.59422472</v>
+        <v>5.731291019635843</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.097348256162725e-06</v>
+        <v>0.0001468416987486476</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>5.731291019635843</v>
+        <v>8.870645997920732</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001468416987486476</v>
+        <v>1.269090687750674</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.870645997920732</v>
+        <v>0.01155473251588136</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.269090687750674</v>
+        <v>2.946374442419654</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01155473251588136</v>
+        <v>0.9514486321530747</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.946374442419654</v>
+        <v>1.777128200675004</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9514486321530747</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.777128200675004</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1671336414039092</v>
       </c>
     </row>
@@ -4565,72 +4493,66 @@
         <v>2.589341875005243e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.4890156373997454</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.24715131432257</v>
+        <v>7.96319412105007e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.01481267456985988</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.96319412105007e-07</v>
+        <v>0.1636662529897451</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01481267456985988</v>
+        <v>0.02700312378659122</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1636662529897451</v>
+        <v>1.669251593423754</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02700312378659122</v>
+        <v>1.593313953969793</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.59770837456641</v>
+        <v>3.861607683399152</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.593313953969793</v>
+        <v>5.87130991294232e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.861607683399152</v>
+        <v>99127130.69399336</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.87130991294232e-16</v>
+        <v>1.099646172903099e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>99127130.69399336</v>
+        <v>5.769259524347988</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.099646172903099e-06</v>
+        <v>0.0001660588468078744</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>5.769259524347988</v>
+        <v>8.347730008207289</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001660588468078744</v>
+        <v>1.721337400373516</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.347730008207289</v>
+        <v>0.01157174370017714</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.721337400373516</v>
+        <v>3.018858061627596</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01157174370017714</v>
+        <v>0.9506260274352668</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.018858061627596</v>
+        <v>1.819732602409499</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9506260274352668</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.819732602409499</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1554272490406617</v>
       </c>
     </row>
@@ -4645,72 +4567,66 @@
         <v>2.615247154613717e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.4870658084291249</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.261343683568252</v>
+        <v>7.966487808774428e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.01027994730046788</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.966487808774428e-07</v>
+        <v>0.1589688511015939</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01027994730046788</v>
+        <v>0.02537094602238346</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1589688511015939</v>
+        <v>1.670670950227274</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02537094602238346</v>
+        <v>1.574910134481603</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.596759666874531</v>
+        <v>3.868326426372064</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.574910134481603</v>
+        <v>5.850932333495769e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.868326426372064</v>
+        <v>96648682.90628806</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.850932333495769e-16</v>
+        <v>1.117549139948327e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>96648682.90628806</v>
+        <v>5.465337115625635</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.117549139948327e-06</v>
+        <v>0.0001501082534756663</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.465337115625635</v>
+        <v>8.76225207871102</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001501082534756663</v>
+        <v>1.385169366026573</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.76225207871102</v>
+        <v>0.01152487060738917</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.385169366026573</v>
+        <v>3.001867785949048</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01152487060738917</v>
+        <v>0.9508433461843532</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.001867785949048</v>
+        <v>1.826497086923547</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9508433461843532</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.826497086923547</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1639907988587083</v>
       </c>
     </row>
@@ -4725,72 +4641,66 @@
         <v>2.633279192812076e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.4807961524013918</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.270136726710692</v>
+        <v>7.968478592641608e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.005015124587094047</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.968478592641608e-07</v>
+        <v>0.1531856858941481</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.005015124587094047</v>
+        <v>0.02348594336672939</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1531856858941481</v>
+        <v>1.669607104323951</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02348594336672939</v>
+        <v>1.55133577618485</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.596966575623668</v>
+        <v>3.887807830794317</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.55133577618485</v>
+        <v>5.792442407040787e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.887807830794317</v>
+        <v>98323668.93933585</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.792442407040787e-16</v>
+        <v>1.095793856539037e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>98323668.93933585</v>
+        <v>5.599869110590158</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.095793856539037e-06</v>
+        <v>0.0001457268974358821</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.599869110590158</v>
+        <v>9.939293074754376</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001457268974358821</v>
+        <v>1.148860525956659</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.939293074754376</v>
+        <v>0.01439629415802942</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.148860525956659</v>
+        <v>2.793679215490473</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01439629415802942</v>
+        <v>0.9494796780327956</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.793679215490473</v>
+        <v>1.791023014642691</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9494796780327956</v>
+        <v>10</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.791023014642691</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1770676569667531</v>
       </c>
     </row>
@@ -4805,72 +4715,66 @@
         <v>2.641574022356093e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.4757247764817932</v>
+        <v>7.688951326602777e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.272565370896352</v>
+        <v>7.969281722932863e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.688951326602777e-08</v>
+        <v>0.001512677067442288</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.969281722932863e-07</v>
+        <v>0.1499678940679071</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.001512677067442288</v>
+        <v>0.02249077147101039</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1499678940679071</v>
+        <v>1.671100732035184</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02249077147101039</v>
+        <v>1.542791639689679</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.595700624456314</v>
+        <v>3.910613891313686</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.542791639689679</v>
+        <v>5.725078256647214e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.910613891313686</v>
+        <v>98573389.04828018</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.725078256647214e-16</v>
+        <v>1.099486486136422e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>98573389.04828018</v>
+        <v>5.562894248533769</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.099486486136422e-06</v>
+        <v>0.0001460533793129427</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.562894248533769</v>
+        <v>9.943969349131304</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001460533793129427</v>
+        <v>1.146097665223537</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.943969349131304</v>
+        <v>0.01444212713812573</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.146097665223537</v>
+        <v>2.754615209518083</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01444212713812573</v>
+        <v>0.9501994217968258</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.754615209518083</v>
+        <v>1.794888812190691</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9501994217968258</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.794888812190691</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1794747309101176</v>
       </c>
     </row>
@@ -4885,72 +4789,66 @@
         <v>2.644213416843018e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.4735660161828463</v>
+        <v>7.718911353530384e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.272676700686006</v>
+        <v>7.969512430701028e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.718911353530384e-08</v>
+        <v>0.0006729856330193866</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.969512430701028e-07</v>
+        <v>0.1493096960050155</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.0006729856330193866</v>
+        <v>0.02229322111669559</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1493096960050155</v>
+        <v>1.652670839051916</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02229322111669559</v>
+        <v>1.50637744172438</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.581040658791515</v>
+        <v>3.951236207745321</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.50637744172438</v>
+        <v>5.607965316164718e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.951236207745321</v>
+        <v>99535065.44551612</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.607965316164718e-16</v>
+        <v>1.078959899789814e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>99535065.44551612</v>
+        <v>5.555939803148022</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.078959899789814e-06</v>
+        <v>0.0001426035330389613</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5.555939803148022</v>
+        <v>9.180120675261401</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001426035330389613</v>
+        <v>1.188070292847381</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.180120675261401</v>
+        <v>0.01201785793182321</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.188070292847381</v>
+        <v>2.923283592371568</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01201785793182321</v>
+        <v>0.9496345390533191</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.923283592371568</v>
+        <v>1.813700709974308</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9496345390533191</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.813700709974308</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.175475868136814</v>
       </c>
     </row>
@@ -4965,72 +4863,66 @@
         <v>2.647171259655217e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.4707338486223274</v>
+        <v>7.87981218941454e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.272169100934732</v>
+        <v>7.96975676979431e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.87981218941454e-08</v>
+        <v>0.001203605219443142</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.96975676979431e-07</v>
+        <v>0.1492960231963019</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.001203605219443142</v>
+        <v>0.02229070499518474</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1492960231963019</v>
+        <v>1.623528068639285</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02229070499518474</v>
+        <v>1.481895536948105</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.547107440286833</v>
+        <v>4.0650242350418</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.481895536948105</v>
+        <v>5.298403470274868e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.0650242350418</v>
+        <v>106979776.5082217</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.298403470274868e-16</v>
+        <v>9.973789615060124e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>106979776.5082217</v>
+        <v>6.063849292329885</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.973789615060124e-07</v>
+        <v>0.0001577165804184121</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>6.063849292329885</v>
+        <v>8.601496736873223</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001577165804184121</v>
+        <v>1.554584627011614</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.601496736873223</v>
+        <v>0.01166877887687441</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.554584627011614</v>
+        <v>3.02956346611686</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01166877887687441</v>
+        <v>0.9470364046631509</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.02956346611686</v>
+        <v>1.804145870206843</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9470364046631509</v>
+        <v>11</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.804145870206843</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.169530400516337</v>
       </c>
     </row>
@@ -5407,7 +5299,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.609779748572185</v>
+        <v>1.54740252838321</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.149997064269308</v>
@@ -5496,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.640513120042986</v>
+        <v>1.581950577784874</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.726224953570421</v>
@@ -5585,7 +5477,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.659452634490536</v>
+        <v>1.595103024818101</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.037791487335944</v>
@@ -5674,7 +5566,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662348247366552</v>
+        <v>1.597854931679271</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.203063155151329</v>
@@ -5763,7 +5655,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.66608758892071</v>
+        <v>1.603209937307723</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.260569672556027</v>
@@ -5852,7 +5744,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.663273686005486</v>
+        <v>1.598742997262035</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.250005172511601</v>
@@ -5941,7 +5833,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.663336698793747</v>
+        <v>1.596613275107597</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.065036005361844</v>
@@ -6030,7 +5922,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.677338515448737</v>
+        <v>1.606306294006167</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.056651918546432</v>
@@ -6119,7 +6011,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683383123011811</v>
+        <v>1.611619407963354</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.202409623051617</v>
@@ -6208,7 +6100,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.698520456994102</v>
+        <v>1.624795976961738</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.172251833594414</v>
@@ -6297,7 +6189,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.706629212165027</v>
+        <v>1.637125489321792</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.325663287759939</v>
@@ -6386,7 +6278,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.711295878681628</v>
+        <v>1.644892105889673</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.119229380757767</v>
@@ -6475,7 +6367,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.710200974673655</v>
+        <v>1.643734077542074</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.919937398383075</v>
@@ -6564,7 +6456,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67404345080561</v>
+        <v>1.61618885293411</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.694475803611032</v>
@@ -6653,7 +6545,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.671670390884487</v>
+        <v>1.604998440183691</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.797894526517541</v>
@@ -6742,7 +6634,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.651328053701062</v>
+        <v>1.588651293829828</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.694279349261346</v>
@@ -6831,7 +6723,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.645640602484958</v>
+        <v>1.575532187065783</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.53576538907853</v>
@@ -6920,7 +6812,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.627067653887139</v>
+        <v>1.563197798485208</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.519864415653206</v>
@@ -7009,7 +6901,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.639776434844615</v>
+        <v>1.576142066333227</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.498108079006969</v>
@@ -7098,7 +6990,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.618929646027435</v>
+        <v>1.554338376616409</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.646372879148117</v>
@@ -7187,7 +7079,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.612114992816681</v>
+        <v>1.555164454723242</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.502371918664855</v>
@@ -7276,7 +7168,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.613530250641757</v>
+        <v>1.561882502740723</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.730490300962987</v>
@@ -7365,7 +7257,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.60485434096331</v>
+        <v>1.557146356599119</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.807842503918843</v>
@@ -7454,7 +7346,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.600279662767351</v>
+        <v>1.553859232810363</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.544229984968517</v>
@@ -7543,7 +7435,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.586809749064827</v>
+        <v>1.539228388411322</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.441381796617419</v>
@@ -7632,7 +7524,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.57340467715238</v>
+        <v>1.530790207367202</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.589859502643935</v>
@@ -7721,7 +7613,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.562463703832573</v>
+        <v>1.51720740732982</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.485403478634253</v>
@@ -7810,7 +7702,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.548876941088631</v>
+        <v>1.501741176987825</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.421661919133661</v>
@@ -7899,7 +7791,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562003838891837</v>
+        <v>1.516304511208817</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.567403633462951</v>
@@ -7988,7 +7880,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.566617967470531</v>
+        <v>1.529306166468301</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.920377595038644</v>
@@ -8077,7 +7969,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.550037815995956</v>
+        <v>1.515716171942669</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.005073140390504</v>
@@ -8166,7 +8058,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.533513299063805</v>
+        <v>1.500621489721047</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.073513393243318</v>
@@ -8255,7 +8147,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.527350027068396</v>
+        <v>1.494983822648741</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.005963947158082</v>
@@ -8344,7 +8236,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.525571334079191</v>
+        <v>1.490475255862039</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.574009066439735</v>
@@ -8433,7 +8325,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.535971604988962</v>
+        <v>1.502629887930334</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.761830520769664</v>
@@ -8522,7 +8414,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.547183548604602</v>
+        <v>1.507882858446504</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.939977224038915</v>
@@ -8611,7 +8503,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.524620083280687</v>
+        <v>1.49190354533291</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.96750445768208</v>
@@ -8700,7 +8592,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.506562122581615</v>
+        <v>1.476475958588982</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.822853232341039</v>
@@ -8789,7 +8681,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.505165674576509</v>
+        <v>1.476489333493592</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.605594754731939</v>
@@ -8878,7 +8770,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.518714922370423</v>
+        <v>1.492262724980662</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.598121596703479</v>
@@ -8967,7 +8859,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.525486673458752</v>
+        <v>1.495250796058379</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.551598432192459</v>
@@ -9056,7 +8948,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.517341552193645</v>
+        <v>1.489531233001196</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.804021789238258</v>
@@ -9145,7 +9037,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.529570549438898</v>
+        <v>1.503116449495295</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.784674943188183</v>
@@ -9234,7 +9126,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.526394466829456</v>
+        <v>1.498201422003583</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.763230118347387</v>
@@ -9323,7 +9215,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.52788297995694</v>
+        <v>1.493419944630989</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.629714353488235</v>
@@ -9412,7 +9304,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.544349400316076</v>
+        <v>1.502886298600227</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.811936494252373</v>
@@ -9501,7 +9393,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.544498056574437</v>
+        <v>1.502850550909805</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.303245484701754</v>
@@ -9590,7 +9482,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.525930199807222</v>
+        <v>1.486745313346757</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.489985624148108</v>
@@ -9679,7 +9571,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.52933947400642</v>
+        <v>1.492653861805587</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.578759910886145</v>
@@ -9768,7 +9660,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.533828950102697</v>
+        <v>1.486598104337179</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.591199040300653</v>
@@ -9857,7 +9749,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.524319549440538</v>
+        <v>1.477179897871393</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.640612329339622</v>
@@ -9946,7 +9838,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.537041518227933</v>
+        <v>1.483865510546927</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.756245000995084</v>
@@ -10035,7 +9927,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.532064087459796</v>
+        <v>1.482036540937584</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.632763826533115</v>
@@ -10124,7 +10016,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.518458139916881</v>
+        <v>1.466013371595442</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.771574361390126</v>
@@ -10213,7 +10105,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.511280746408688</v>
+        <v>1.462796585251365</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.782327475897429</v>
@@ -10302,7 +10194,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.511908205520141</v>
+        <v>1.462881042324965</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.875192746745121</v>
@@ -10391,7 +10283,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.509195403338754</v>
+        <v>1.459627338328519</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.744356630855933</v>
@@ -10480,7 +10372,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.509860212907507</v>
+        <v>1.455162916321624</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.706329660992214</v>
@@ -10569,7 +10461,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.507322964946868</v>
+        <v>1.452138559717467</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.629119017098483</v>
@@ -10658,7 +10550,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.492897555931165</v>
+        <v>1.439200811450094</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.839307946287922</v>
@@ -10747,7 +10639,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.49474296783824</v>
+        <v>1.43847631753311</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.754119050400776</v>
@@ -11033,7 +10925,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.593584083977471</v>
+        <v>1.579647725051734</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.07745405377123</v>
@@ -11122,7 +11014,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.603008848702675</v>
+        <v>1.588624776384066</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.625434877634811</v>
@@ -11211,7 +11103,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614521412051885</v>
+        <v>1.596288839925228</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.192113808780496</v>
@@ -11300,7 +11192,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.610874068374494</v>
+        <v>1.592297672202819</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.955577123475507</v>
@@ -11389,7 +11281,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.613674246192262</v>
+        <v>1.596825233831859</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.091330280588777</v>
@@ -11478,7 +11370,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.59300097606761</v>
+        <v>1.572244447249905</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.761246030033812</v>
@@ -11567,7 +11459,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.562082883933948</v>
+        <v>1.55005298542123</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.585738666925027</v>
@@ -11656,7 +11548,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.565976046519728</v>
+        <v>1.548809041450992</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.711591145870304</v>
@@ -11745,7 +11637,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.57531351675601</v>
+        <v>1.556403182087471</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.787380721533372</v>
@@ -11834,7 +11726,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.583286417305969</v>
+        <v>1.564518683186212</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.759461397794875</v>
@@ -11923,7 +11815,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.575647498349287</v>
+        <v>1.562021741660898</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.692171192224305</v>
@@ -12012,7 +11904,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.598304192683871</v>
+        <v>1.581232646284704</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.521488657341437</v>
@@ -12101,7 +11993,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.602112449384778</v>
+        <v>1.581670322549853</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.369526810874629</v>
@@ -12190,7 +12082,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56115965190196</v>
+        <v>1.552098590808076</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.600622178954528</v>
@@ -12279,7 +12171,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.586648033919732</v>
+        <v>1.564899080165009</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.522519476483596</v>
@@ -12368,7 +12260,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.575938712777751</v>
+        <v>1.557039596685995</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.586962436286376</v>
@@ -12457,7 +12349,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.570138836118154</v>
+        <v>1.543707333946376</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.534568002962229</v>
@@ -12546,7 +12438,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.564375555053252</v>
+        <v>1.538173896364234</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.426410617260476</v>
@@ -12635,7 +12527,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583048888048817</v>
+        <v>1.553665941676418</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.485183497096119</v>
@@ -12724,7 +12616,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.568945985584332</v>
+        <v>1.53574371957264</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.542603489391738</v>
@@ -12813,7 +12705,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.611984818710495</v>
+        <v>1.57574194147293</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.283522162365845</v>
@@ -12902,7 +12794,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.628293651842166</v>
+        <v>1.589994471613516</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.695895190436118</v>
@@ -12991,7 +12883,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.629854664294775</v>
+        <v>1.591582147145941</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.576012759995084</v>
@@ -13080,7 +12972,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.625831929149362</v>
+        <v>1.591243220462302</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.811055222282615</v>
@@ -13169,7 +13061,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.612385067641202</v>
+        <v>1.580857535174782</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.704184002042728</v>
@@ -13258,7 +13150,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.602594424402456</v>
+        <v>1.574900851321112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.805122191277014</v>
@@ -13347,7 +13239,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.575911027199464</v>
+        <v>1.548507714401109</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.374694240929534</v>
@@ -13436,7 +13328,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533711098415742</v>
+        <v>1.515649647374456</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.179398484487518</v>
@@ -13525,7 +13417,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.539458154585605</v>
+        <v>1.522418652414184</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.428454980024038</v>
@@ -13614,7 +13506,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.528208750199217</v>
+        <v>1.523344790235542</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.467422978101873</v>
@@ -13703,7 +13595,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.518549144440479</v>
+        <v>1.514793477965039</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.462106618964407</v>
@@ -13792,7 +13684,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.506158621505056</v>
+        <v>1.505316208723962</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.4906666384448</v>
@@ -13881,7 +13773,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503403161482805</v>
+        <v>1.501188451119652</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.451206992280679</v>
@@ -13970,7 +13862,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.49444137114081</v>
+        <v>1.492487042159431</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.214246104562186</v>
@@ -14059,7 +13951,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.49160107116597</v>
+        <v>1.492403613302959</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.370670456659966</v>
@@ -14148,7 +14040,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.495489758270935</v>
+        <v>1.492147603310106</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.35831323362902</v>
@@ -14237,7 +14129,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.485573649684792</v>
+        <v>1.4843767925817</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.330193558134788</v>
@@ -14326,7 +14218,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.470106278365029</v>
+        <v>1.470605896224584</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.305858470867422</v>
@@ -14415,7 +14307,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.47035287559962</v>
+        <v>1.467888754514603</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.228292885164466</v>
@@ -14504,7 +14396,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.475433978995809</v>
+        <v>1.474065604538359</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.349215547786639</v>
@@ -14593,7 +14485,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.480548190522322</v>
+        <v>1.475353852728134</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.210035078608334</v>
@@ -14682,7 +14574,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.496113405360703</v>
+        <v>1.484471598550769</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.052433029682093</v>
@@ -14771,7 +14663,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.538753066338021</v>
+        <v>1.525151041584453</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.869116362682016</v>
@@ -14860,7 +14752,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.539386633951199</v>
+        <v>1.524649154089737</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.963444535528236</v>
@@ -14949,7 +14841,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.548486915946914</v>
+        <v>1.527995456066924</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.722106614752474</v>
@@ -15038,7 +14930,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565418064024457</v>
+        <v>1.540832139632694</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.898908229737204</v>
@@ -15127,7 +15019,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.591350911571965</v>
+        <v>1.554816142974554</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.597145765531935</v>
@@ -15216,7 +15108,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587129622001873</v>
+        <v>1.552328936703592</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.819110517490633</v>
@@ -15305,7 +15197,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595350575646786</v>
+        <v>1.561588492407405</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.02786540320606</v>
@@ -15394,7 +15286,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.603615290550297</v>
+        <v>1.561339163311219</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.718220851718721</v>
@@ -15483,7 +15375,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594695727940575</v>
+        <v>1.555302627520243</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.805567398022957</v>
@@ -15572,7 +15464,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609077297880352</v>
+        <v>1.560620176771976</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.76987972086035</v>
@@ -15661,7 +15553,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630039304596474</v>
+        <v>1.578923873978438</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.967571799540916</v>
@@ -15750,7 +15642,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.624851813244847</v>
+        <v>1.574579847771216</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.050815830310023</v>
@@ -15839,7 +15731,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62340289995494</v>
+        <v>1.575552881727021</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.112030635232688</v>
@@ -15928,7 +15820,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.62771354834789</v>
+        <v>1.578529400848642</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.125409110294904</v>
@@ -16017,7 +15909,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.644213896298965</v>
+        <v>1.589775854920378</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.864436291739441</v>
@@ -16106,7 +15998,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.647675338999397</v>
+        <v>1.583878434975043</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.004001231765574</v>
@@ -16195,7 +16087,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.65674814901779</v>
+        <v>1.59005444020061</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.89338259462782</v>
@@ -16284,7 +16176,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.646922549886987</v>
+        <v>1.583850995232828</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.136995604365715</v>
@@ -16373,7 +16265,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.647138708666329</v>
+        <v>1.585230403765804</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.14189634069893</v>
@@ -16659,7 +16551,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.696956269150597</v>
+        <v>1.662632040579028</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.558583978646947</v>
@@ -16748,7 +16640,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.700306451348403</v>
+        <v>1.664005449558016</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.170178747478754</v>
@@ -16837,7 +16729,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.700186770590949</v>
+        <v>1.658624257695001</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.678835455124223</v>
@@ -16926,7 +16818,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.694288309406603</v>
+        <v>1.649347714319823</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.513693569312488</v>
@@ -17015,7 +16907,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.696064658143248</v>
+        <v>1.651304350210962</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.628968522173076</v>
@@ -17104,7 +16996,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.696489854568861</v>
+        <v>1.649191656857426</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.307318613262016</v>
@@ -17193,7 +17085,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.688849277088987</v>
+        <v>1.638462886920992</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.325754255816437</v>
@@ -17282,7 +17174,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.684195339335025</v>
+        <v>1.628539868297055</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.016708877057983</v>
@@ -17371,7 +17263,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.68907105790591</v>
+        <v>1.629394144055752</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.380608595417176</v>
@@ -17460,7 +17352,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.701296365480238</v>
+        <v>1.642160144594486</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.306919413161811</v>
@@ -17549,7 +17441,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.697632398925836</v>
+        <v>1.640825185594661</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.302510613203314</v>
@@ -17638,7 +17530,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.702501026970868</v>
+        <v>1.647325500880883</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.063374003440458</v>
@@ -17727,7 +17619,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.705566243787791</v>
+        <v>1.646086985319489</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.187407332045679</v>
@@ -17816,7 +17708,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.674594952150775</v>
+        <v>1.621713892458092</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.7763457226247</v>
@@ -17905,7 +17797,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.679909566251705</v>
+        <v>1.621602019538869</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.884785539276784</v>
@@ -17994,7 +17886,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.678386298931217</v>
+        <v>1.617794672337255</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.842020632893739</v>
@@ -18083,7 +17975,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.668471289239175</v>
+        <v>1.604642182083246</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.47647201469023</v>
@@ -18172,7 +18064,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.662515892691382</v>
+        <v>1.598083439660572</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.773553479642292</v>
@@ -18261,7 +18153,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.668157116328582</v>
+        <v>1.604357780448252</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.615554561386743</v>
@@ -18350,7 +18242,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.65017517522577</v>
+        <v>1.588948003959013</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.906169049745698</v>
@@ -18439,7 +18331,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.645089739599365</v>
+        <v>1.591831404666995</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.901881728268037</v>
@@ -18528,7 +18420,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.660741866613724</v>
+        <v>1.611217186931541</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.110533310718625</v>
@@ -18617,7 +18509,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.667215639817323</v>
+        <v>1.621408261994601</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.016954196381596</v>
@@ -18706,7 +18598,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.668823769035473</v>
+        <v>1.62949399180781</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.618528077915267</v>
@@ -18795,7 +18687,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.653364915273121</v>
+        <v>1.611729775405326</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.646641299296567</v>
@@ -18884,7 +18776,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.650295341339019</v>
+        <v>1.613662924022497</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.760507444727782</v>
@@ -18973,7 +18865,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.638681386957741</v>
+        <v>1.603396155491287</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.729954994518685</v>
@@ -19062,7 +18954,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.616269644787353</v>
+        <v>1.588093442813026</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.799785336985358</v>
@@ -19151,7 +19043,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.627988233189668</v>
+        <v>1.601628385028221</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.109080222269539</v>
@@ -19240,7 +19132,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622555690693895</v>
+        <v>1.604554702850102</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.288658920284275</v>
@@ -19329,7 +19221,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610810809502123</v>
+        <v>1.593165383439521</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.21432384172978</v>
@@ -19418,7 +19310,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593828344333021</v>
+        <v>1.58042474031791</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.260296662084521</v>
@@ -19507,7 +19399,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.586298498509297</v>
+        <v>1.576266243469314</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.222260701653564</v>
@@ -19596,7 +19488,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588602288074066</v>
+        <v>1.574285414142942</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.843219350630278</v>
@@ -19685,7 +19577,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.595965839746603</v>
+        <v>1.578925868286544</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.792427004350125</v>
@@ -19774,7 +19666,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.595302771488869</v>
+        <v>1.575823445145363</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.027550939292926</v>
@@ -19863,7 +19755,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.552079772493793</v>
+        <v>1.536702478013056</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.266534553691474</v>
@@ -19952,7 +19844,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.438265050447136</v>
+        <v>1.435058396548987</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.884085344351603</v>
@@ -20041,7 +19933,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.441325955303824</v>
+        <v>1.437186218468024</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.839879140407821</v>
@@ -20130,7 +20022,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.439788640491733</v>
+        <v>1.441094413468176</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.900570354556606</v>
@@ -20219,7 +20111,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.433147207093032</v>
+        <v>1.431295679591128</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.830777249925103</v>
@@ -20308,7 +20200,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.421036638789485</v>
+        <v>1.419167562824393</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.869451594214509</v>
@@ -20397,7 +20289,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.436151802543251</v>
+        <v>1.431822238389195</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.833030034350146</v>
@@ -20486,7 +20378,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.424751782749339</v>
+        <v>1.42052275714495</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.856300239413001</v>
@@ -20575,7 +20467,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.42946532979586</v>
+        <v>1.420271005188682</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.88648554357005</v>
@@ -20664,7 +20556,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.449174731026793</v>
+        <v>1.438636579045507</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.899482783163149</v>
@@ -20753,7 +20645,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.47440154765911</v>
+        <v>1.45437828996213</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.869428561688002</v>
@@ -20842,7 +20734,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.469579938599036</v>
+        <v>1.450627876049017</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.922193403808933</v>
@@ -20931,7 +20823,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.475826344043926</v>
+        <v>1.457699805937596</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.945856980887499</v>
@@ -21020,7 +20912,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.486590182742087</v>
+        <v>1.458444498420788</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.953589256893384</v>
@@ -21109,7 +21001,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.487643230893736</v>
+        <v>1.45905126033265</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.035518708656684</v>
@@ -21198,7 +21090,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.542034588504855</v>
+        <v>1.499642194743193</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.084971967525837</v>
@@ -21287,7 +21179,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.619791947395691</v>
+        <v>1.57192536130447</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.053029333523212</v>
@@ -21376,7 +21268,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.612756357651432</v>
+        <v>1.562432765591983</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.052099296591398</v>
@@ -21465,7 +21357,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.611151577114343</v>
+        <v>1.563943142414016</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.998022072969684</v>
@@ -21554,7 +21446,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.618664020643094</v>
+        <v>1.571462681362241</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.713157761115486</v>
@@ -21643,7 +21535,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.628277048757218</v>
+        <v>1.57986001389344</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.901424895557314</v>
@@ -21732,7 +21624,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.633490266619917</v>
+        <v>1.577811494150182</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.079817428513568</v>
@@ -21821,7 +21713,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.640456480938387</v>
+        <v>1.582073773577103</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.048604309995563</v>
@@ -21910,7 +21802,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.632393041963978</v>
+        <v>1.57981106808117</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.912004530628268</v>
@@ -21999,7 +21891,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.631197789340924</v>
+        <v>1.575959600029931</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.095118402177201</v>
@@ -22285,7 +22177,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678586855241935</v>
+        <v>1.616702357399924</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.225992703332925</v>
@@ -22374,7 +22266,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.682414053458799</v>
+        <v>1.623059620898647</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.923694058073357</v>
@@ -22463,7 +22355,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.696281907035412</v>
+        <v>1.631872610603395</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.019612956520923</v>
@@ -22552,7 +22444,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.698095114247138</v>
+        <v>1.631849593860902</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.181669571635564</v>
@@ -22641,7 +22533,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.694693528690872</v>
+        <v>1.624565827637998</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.27523609515431</v>
@@ -22730,7 +22622,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.688130461494632</v>
+        <v>1.619308311152456</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.128680025473198</v>
@@ -22819,7 +22711,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.686829576088777</v>
+        <v>1.61826472700705</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.137986552073399</v>
@@ -22908,7 +22800,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.697955985195568</v>
+        <v>1.627302846966399</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.963868978141909</v>
@@ -22997,7 +22889,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700017714643984</v>
+        <v>1.627855051809728</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.33627138324006</v>
@@ -23086,7 +22978,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.717560446916266</v>
+        <v>1.643496472724301</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.270066062328191</v>
@@ -23175,7 +23067,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.724102640347799</v>
+        <v>1.654039116041732</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.10006228982977</v>
@@ -23264,7 +23156,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.729174438161916</v>
+        <v>1.661109409389135</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.019673875302056</v>
@@ -23353,7 +23245,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.729972592638886</v>
+        <v>1.660428889842887</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.088484588620589</v>
@@ -23442,7 +23334,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.701095913090279</v>
+        <v>1.637100704618011</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.847526316460792</v>
@@ -23531,7 +23423,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.695730412633589</v>
+        <v>1.6254612054911</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.018805212312882</v>
@@ -23620,7 +23512,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.684895968430911</v>
+        <v>1.609358590651243</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.005136638569787</v>
@@ -23709,7 +23601,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676570476435761</v>
+        <v>1.593627551539682</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.601983418097351</v>
@@ -23798,7 +23690,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.659434761962117</v>
+        <v>1.582580320075653</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.828123128411384</v>
@@ -23887,7 +23779,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.662573611558062</v>
+        <v>1.586499922239681</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.6546305573377</v>
@@ -23976,7 +23868,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.64397465786251</v>
+        <v>1.572447984814356</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.850825144361797</v>
@@ -24065,7 +23957,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.644813216141662</v>
+        <v>1.580091122972633</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.058831469076381</v>
@@ -24154,7 +24046,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.650013997192998</v>
+        <v>1.588052313803417</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.884628207704894</v>
@@ -24243,7 +24135,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.642305594855193</v>
+        <v>1.586589870520623</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.945871704051066</v>
@@ -24332,7 +24224,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.632538697991148</v>
+        <v>1.585267162426689</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.725074791235207</v>
@@ -24421,7 +24313,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618971540973515</v>
+        <v>1.568106500094136</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.703522404677033</v>
@@ -24510,7 +24402,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.609560599120395</v>
+        <v>1.561683502104381</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.789775171583754</v>
@@ -24599,7 +24491,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.593440321701073</v>
+        <v>1.548486198790866</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.713116498832914</v>
@@ -24688,7 +24580,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578823569129627</v>
+        <v>1.536050182341415</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.691790243067435</v>
@@ -24777,7 +24669,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581004955783336</v>
+        <v>1.543581198191515</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.058321438430879</v>
@@ -24866,7 +24758,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588419134520475</v>
+        <v>1.557219946863404</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.801316132462609</v>
@@ -24955,7 +24847,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576442737537353</v>
+        <v>1.551816785938625</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.984637021424982</v>
@@ -25044,7 +24936,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.555170379475917</v>
+        <v>1.53656181506748</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.983260440792043</v>
@@ -25133,7 +25025,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.545940600565514</v>
+        <v>1.528259703135868</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.047681115667965</v>
@@ -25222,7 +25114,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550662080427525</v>
+        <v>1.529441153169717</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.790839921882564</v>
@@ -25311,7 +25203,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561941124462228</v>
+        <v>1.542860362723604</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.850509293303528</v>
@@ -25400,7 +25292,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.564919230957709</v>
+        <v>1.544873254720557</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.014687272482751</v>
@@ -25489,7 +25381,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.546079931586519</v>
+        <v>1.527679492340322</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.894487347309271</v>
@@ -25578,7 +25470,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.542331879317413</v>
+        <v>1.523454937761676</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.104208964286876</v>
@@ -25667,7 +25559,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557346337827085</v>
+        <v>1.532801660066518</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.775241377714827</v>
@@ -25756,7 +25648,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.563738895223882</v>
+        <v>1.5454589774375</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.794141741231208</v>
@@ -25845,7 +25737,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59176930828195</v>
+        <v>1.566826965924968</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.716577932009005</v>
@@ -25934,7 +25826,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.579618974632075</v>
+        <v>1.554476789020387</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.782167411408993</v>
@@ -26023,7 +25915,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594846529640275</v>
+        <v>1.566383424830148</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.01424558235535</v>
@@ -26112,7 +26004,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.589022591389831</v>
+        <v>1.561533843369366</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.092723245276749</v>
@@ -26201,7 +26093,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.582805925454533</v>
+        <v>1.553137986064943</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.76434270300579</v>
@@ -26290,7 +26182,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.602254937796456</v>
+        <v>1.565341576779807</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.863063875696411</v>
@@ -26379,7 +26271,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.623351496607854</v>
+        <v>1.576715850187711</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.515401548152258</v>
@@ -26468,7 +26360,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.604030963082951</v>
+        <v>1.560998110962323</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.827096928443876</v>
@@ -26557,7 +26449,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.605757157480165</v>
+        <v>1.566369014368875</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.829334337969974</v>
@@ -26646,7 +26538,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.611062439998658</v>
+        <v>1.561205930738356</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.916210805987117</v>
@@ -26735,7 +26627,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602147889718573</v>
+        <v>1.549781151238458</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.009786371642825</v>
@@ -26824,7 +26716,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615286804960306</v>
+        <v>1.555537641891231</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.052426408307494</v>
@@ -26913,7 +26805,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.618314364769595</v>
+        <v>1.560302576140518</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.098364733818847</v>
@@ -27002,7 +26894,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.604888181384511</v>
+        <v>1.546372581812105</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.129101890399034</v>
@@ -27091,7 +26983,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.597803393498827</v>
+        <v>1.543003111337767</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.029051619967917</v>
@@ -27180,7 +27072,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.594654163881593</v>
+        <v>1.54061656269963</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.845795869824479</v>
@@ -27269,7 +27161,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.592851832346615</v>
+        <v>1.539295087506819</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.000942118865375</v>
@@ -27358,7 +27250,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.591907255160124</v>
+        <v>1.531120383041984</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.181690504490669</v>
@@ -27447,7 +27339,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.599957189698391</v>
+        <v>1.538356634493529</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.095865343900329</v>
@@ -27536,7 +27428,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.589063367168245</v>
+        <v>1.529112546491824</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.121756196221164</v>
@@ -27625,7 +27517,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.587421090832054</v>
+        <v>1.52402024086634</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.106087056467645</v>
@@ -27911,7 +27803,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499064573176326</v>
+        <v>1.470061264610271</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.171259343083191</v>
@@ -28000,7 +27892,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.533256608195126</v>
+        <v>1.501367666076485</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.060983081623936</v>
@@ -28089,7 +27981,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.613090321611629</v>
+        <v>1.567641301163973</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.439756538450422</v>
@@ -28178,7 +28070,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.636853245966726</v>
+        <v>1.584232725790727</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.825138138275973</v>
@@ -28267,7 +28159,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.649390165703642</v>
+        <v>1.593811293601661</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.062149012301773</v>
@@ -28356,7 +28248,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.656634537495842</v>
+        <v>1.59844400921704</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.811561862376144</v>
@@ -28445,7 +28337,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.6611160255413</v>
+        <v>1.596662641661926</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.925482865595016</v>
@@ -28534,7 +28426,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679221725697857</v>
+        <v>1.604110631347977</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.692061684857645</v>
@@ -28623,7 +28515,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.706155464661053</v>
+        <v>1.624548764867487</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.320106198144744</v>
@@ -28712,7 +28604,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.717830025748931</v>
+        <v>1.634372311449314</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.315883103308304</v>
@@ -28801,7 +28693,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.725923404034474</v>
+        <v>1.643477228141118</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.050374581408119</v>
@@ -28890,7 +28782,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.734649607666307</v>
+        <v>1.651126429559779</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.071099741750607</v>
@@ -28979,7 +28871,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.735946077873539</v>
+        <v>1.650679967155684</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.021401299328624</v>
@@ -29068,7 +28960,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.708366575336263</v>
+        <v>1.633016954175456</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.798642262527747</v>
@@ -29157,7 +29049,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.700838583464078</v>
+        <v>1.621512587242853</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.882531457926391</v>
@@ -29246,7 +29138,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.680203352245495</v>
+        <v>1.595763898301527</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.958648786456952</v>
@@ -29335,7 +29227,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.673283098223536</v>
+        <v>1.58396467859849</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.68424076805561</v>
@@ -29424,7 +29316,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.661155444832093</v>
+        <v>1.575830255255797</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.825566479205255</v>
@@ -29513,7 +29405,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.671206146300818</v>
+        <v>1.585365932692279</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.883285204323312</v>
@@ -29602,7 +29494,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.649549476796486</v>
+        <v>1.569567633119037</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.995249834854087</v>
@@ -29691,7 +29583,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.643257893568977</v>
+        <v>1.574979153992745</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.943582538924564</v>
@@ -29780,7 +29672,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647152540391349</v>
+        <v>1.584415458385331</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.02828503123615</v>
@@ -29869,7 +29761,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.644448407811308</v>
+        <v>1.587324683975637</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.988605864969415</v>
@@ -29958,7 +29850,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.635776133431107</v>
+        <v>1.582577156378688</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.809168174945144</v>
@@ -30047,7 +29939,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.624977475288089</v>
+        <v>1.56778024533203</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.682308325424102</v>
@@ -30136,7 +30028,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.610681655498928</v>
+        <v>1.558829266397738</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.991253903162548</v>
@@ -30225,7 +30117,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.599304470755698</v>
+        <v>1.549951910831066</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.858557691519644</v>
@@ -30314,7 +30206,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.593208416201164</v>
+        <v>1.543250567250858</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.920003104820972</v>
@@ -30403,7 +30295,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.594430938330714</v>
+        <v>1.547629549863687</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.868058005566009</v>
@@ -30492,7 +30384,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.597672665889056</v>
+        <v>1.561214534872057</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.780510456224666</v>
@@ -30581,7 +30473,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579876023770664</v>
+        <v>1.554501057051589</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.082834418302689</v>
@@ -30670,7 +30562,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.565631087746044</v>
+        <v>1.538988998368987</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.895352805946852</v>
@@ -30759,7 +30651,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.549002571848877</v>
+        <v>1.525686586934672</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.916410543819894</v>
@@ -30848,7 +30740,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.537736996933846</v>
+        <v>1.5159138934901</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.669594760446516</v>
@@ -30937,7 +30829,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.546814474453834</v>
+        <v>1.525662015549334</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.898910674901236</v>
@@ -31026,7 +30918,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.554224177868683</v>
+        <v>1.529820853373713</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.036468853508916</v>
@@ -31115,7 +31007,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.530968659128374</v>
+        <v>1.50806814128665</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.028286730078974</v>
@@ -31204,7 +31096,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.519772621946396</v>
+        <v>1.497898447042322</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.122915646581046</v>
@@ -31293,7 +31185,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531383738760932</v>
+        <v>1.50691633367817</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.766380961082731</v>
@@ -31382,7 +31274,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.538553105295022</v>
+        <v>1.519106173158209</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.779878885555668</v>
@@ -31471,7 +31363,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.559881247407744</v>
+        <v>1.534876284622865</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.608807633625618</v>
@@ -31560,7 +31452,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.552881803281633</v>
+        <v>1.527433585627674</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.066805610800469</v>
@@ -31649,7 +31541,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.558088758490742</v>
+        <v>1.533935379086385</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.062446244106357</v>
@@ -31738,7 +31630,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.54209847265618</v>
+        <v>1.51887152291143</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.940476980386399</v>
@@ -31827,7 +31719,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.525907293022212</v>
+        <v>1.502787975918985</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.914750707781086</v>
@@ -31916,7 +31808,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.551859746218651</v>
+        <v>1.517974841392271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.853485463310605</v>
@@ -32005,7 +31897,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.553477204448555</v>
+        <v>1.517939727799592</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.579332564340567</v>
@@ -32094,7 +31986,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.549925645578665</v>
+        <v>1.51626836189361</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.777377217984534</v>
@@ -32183,7 +32075,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551031621273413</v>
+        <v>1.519380941628089</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.844590550227353</v>
@@ -32272,7 +32164,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.551038354721818</v>
+        <v>1.50960707052553</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.892298787050931</v>
@@ -32361,7 +32253,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.524730800722299</v>
+        <v>1.483465715961945</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.478836728794253</v>
@@ -32450,7 +32342,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.539031897470795</v>
+        <v>1.495087191265457</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.15456621709272</v>
@@ -32539,7 +32431,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.510967494165036</v>
+        <v>1.482622530105236</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.297967817700876</v>
@@ -32628,7 +32520,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.499512729949842</v>
+        <v>1.46913251280262</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.290202772822754</v>
@@ -32717,7 +32609,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.488090078815498</v>
+        <v>1.460677503452789</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.356330187312035</v>
@@ -32806,7 +32698,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.484574824172756</v>
+        <v>1.459242734510446</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.410940678824442</v>
@@ -32895,7 +32787,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.482792796012498</v>
+        <v>1.457800174909982</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.365250872691671</v>
@@ -32984,7 +32876,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.474793938543443</v>
+        <v>1.44713694976042</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.320612230979389</v>
@@ -33073,7 +32965,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.48072480347308</v>
+        <v>1.45425453895677</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.274199749984324</v>
@@ -33162,7 +33054,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.478600974014413</v>
+        <v>1.451740248640481</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.379082369169442</v>
@@ -33251,7 +33143,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.472045148002128</v>
+        <v>1.44688293372923</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.388396656154837</v>
@@ -33537,7 +33429,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542930334226866</v>
+        <v>1.546164213319547</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.220067894809025</v>
@@ -33626,7 +33518,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553235164311028</v>
+        <v>1.555834751529381</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.334572798837465</v>
@@ -33715,7 +33607,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.545478941048407</v>
+        <v>1.547276549116531</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.252369742331119</v>
@@ -33804,7 +33696,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.537238744682794</v>
+        <v>1.537229414538088</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.183262237624594</v>
@@ -33893,7 +33785,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53426918215935</v>
+        <v>1.532907397703137</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.1605536370445</v>
@@ -33982,7 +33874,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.532302628666041</v>
+        <v>1.52419175967148</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.195986526053239</v>
@@ -34071,7 +33963,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.512597168664794</v>
+        <v>1.504226047586374</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.227432810521757</v>
@@ -34160,7 +34052,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.509577137130669</v>
+        <v>1.498269132929221</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.125574199659933</v>
@@ -34249,7 +34141,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.512117349142704</v>
+        <v>1.499512696455817</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.171201058243504</v>
@@ -34338,7 +34230,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.518979628248653</v>
+        <v>1.511803481299581</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.169778281612357</v>
@@ -34427,7 +34319,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.505433435882027</v>
+        <v>1.5016860940962</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.101058223787209</v>
@@ -34516,7 +34408,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.553049242529277</v>
+        <v>1.54420517258024</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.032549524514802</v>
@@ -34605,7 +34497,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.587938555061666</v>
+        <v>1.571001131496536</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.635669848278388</v>
@@ -34694,7 +34586,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567859956702506</v>
+        <v>1.550073646831265</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.661018090681798</v>
@@ -34783,7 +34675,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576769809226284</v>
+        <v>1.547696717063892</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.890847874592358</v>
@@ -34872,7 +34764,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.566173516715226</v>
+        <v>1.538551964725173</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.875265884581119</v>
@@ -34961,7 +34853,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.557043274910427</v>
+        <v>1.526498719832037</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.600835296311873</v>
@@ -35050,7 +34942,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.567191135592271</v>
+        <v>1.536293613693594</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.681000008441269</v>
@@ -35139,7 +35031,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.591779313829927</v>
+        <v>1.560101781193309</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.786683769917939</v>
@@ -35228,7 +35120,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.58304363046714</v>
+        <v>1.545022838442312</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.883489497195509</v>
@@ -35317,7 +35209,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608980252335047</v>
+        <v>1.572163757043677</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.487444798304188</v>
@@ -35406,7 +35298,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.626116103968973</v>
+        <v>1.595147845823161</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.077314128049065</v>
@@ -35495,7 +35387,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.642528917335726</v>
+        <v>1.613993281397647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.822651647916154</v>
@@ -35584,7 +35476,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.645374570699564</v>
+        <v>1.618080800829329</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.842816859783291</v>
@@ -35673,7 +35565,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629040781852481</v>
+        <v>1.599850589441186</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.71033674535744</v>
@@ -35762,7 +35654,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.638078779060457</v>
+        <v>1.61153743550133</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.949352820834767</v>
@@ -35851,7 +35743,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.609755669109953</v>
+        <v>1.585153920963683</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.410818218999405</v>
@@ -35940,7 +35832,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.536376397195276</v>
+        <v>1.520445697519963</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.302009367804309</v>
@@ -36029,7 +35921,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.541586098844018</v>
+        <v>1.53191380152027</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.334682850237542</v>
@@ -36118,7 +36010,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.536437112353965</v>
+        <v>1.533179226707547</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.365993186978499</v>
@@ -36207,7 +36099,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.519920519021917</v>
+        <v>1.517418821231685</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.334909502768754</v>
@@ -36296,7 +36188,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50549894202527</v>
+        <v>1.50467341808298</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.344387718437916</v>
@@ -36385,7 +36277,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.494232846582839</v>
+        <v>1.490885218823527</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.314026735889243</v>
@@ -36474,7 +36366,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.476703350287617</v>
+        <v>1.471920307469316</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.253344018740715</v>
@@ -36563,7 +36455,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.469146180832013</v>
+        <v>1.467783767934305</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.216722623387314</v>
@@ -36652,7 +36544,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.465207237240294</v>
+        <v>1.462634772415109</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.241292451355631</v>
@@ -36741,7 +36633,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.444653609970826</v>
+        <v>1.436191199942123</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.215616280646999</v>
@@ -36830,7 +36722,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.435289395638226</v>
+        <v>1.422664580691096</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.16700138141994</v>
@@ -36919,7 +36811,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.441186723332373</v>
+        <v>1.427381533841096</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.123788240761155</v>
@@ -37008,7 +36900,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.442020347886761</v>
+        <v>1.435410327362625</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.133845829900198</v>
@@ -37097,7 +36989,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.437222990163447</v>
+        <v>1.428040530163224</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.144528682820425</v>
@@ -37186,7 +37078,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.456309282565249</v>
+        <v>1.437087099816679</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.010046139138049</v>
@@ -37275,7 +37167,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.505211420177658</v>
+        <v>1.490451386931736</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.615449615647116</v>
@@ -37364,7 +37256,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.493133509059696</v>
+        <v>1.479242866659837</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.722988748180668</v>
@@ -37453,7 +37345,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.50636623483609</v>
+        <v>1.484964155783302</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.939540892266341</v>
@@ -37542,7 +37434,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.53451447435396</v>
+        <v>1.506012640737178</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.681247368216443</v>
@@ -37631,7 +37523,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.547066401930367</v>
+        <v>1.514367769145898</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.822725050584143</v>
@@ -37720,7 +37612,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.537124483879794</v>
+        <v>1.50970273636349</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.812222389238868</v>
@@ -37809,7 +37701,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.548432281547419</v>
+        <v>1.522929773642735</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.760337063261606</v>
@@ -37898,7 +37790,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.562221498189219</v>
+        <v>1.526807128347174</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.688634408669818</v>
@@ -37987,7 +37879,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.554295087774262</v>
+        <v>1.519728177597838</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.980910056538959</v>
@@ -38076,7 +37968,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.57273232050299</v>
+        <v>1.535114370284131</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.82994648424043</v>
@@ -38165,7 +38057,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.583223397427775</v>
+        <v>1.546821413802816</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.937350002804611</v>
@@ -38254,7 +38146,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.575002363908943</v>
+        <v>1.535303802676449</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.135041917330868</v>
@@ -38343,7 +38235,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.572668465788199</v>
+        <v>1.529784609385913</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.149381483762891</v>
@@ -38432,7 +38324,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.572249565940045</v>
+        <v>1.527697646680586</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.155120208599608</v>
@@ -38521,7 +38413,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.590883472781981</v>
+        <v>1.547429090957358</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.913536025325387</v>
@@ -38610,7 +38502,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.598025507066503</v>
+        <v>1.546501845999202</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.874086799164282</v>
@@ -38699,7 +38591,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.604458784119691</v>
+        <v>1.551149943402343</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.108547090181587</v>
@@ -38788,7 +38680,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.590918307710726</v>
+        <v>1.54157460394475</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.150197163941192</v>
@@ -38877,7 +38769,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.589122792345754</v>
+        <v>1.540126203086281</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.840445314711656</v>
